--- a/report/reliability/comb/Instituto de Matemática - IM-Presencial.xlsx
+++ b/report/reliability/comb/Instituto de Matemática - IM-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -175,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="481">
+  <fonts count="480">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1016,6 +1016,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1842,11 +1847,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2227,11 +2227,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3137,7 +3132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="803">
+  <cellXfs count="802">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3400,7 +3395,6 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3428,13 +3422,14 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3443,7 +3438,6 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3459,13 +3453,14 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3473,7 +3468,6 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3489,20 +3483,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3518,20 +3512,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3559,13 +3553,14 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3574,7 +3569,6 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3590,13 +3584,14 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3604,7 +3599,6 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3620,20 +3614,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3649,13 +3643,14 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3791,6 +3786,7 @@
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3818,14 +3814,13 @@
     <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3834,6 +3829,7 @@
     <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3849,14 +3845,13 @@
     <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3864,6 +3859,7 @@
     <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3879,20 +3875,20 @@
     <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3908,19 +3904,19 @@
     <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3948,14 +3944,13 @@
     <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3964,6 +3959,7 @@
     <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3979,14 +3975,13 @@
     <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3994,6 +3989,7 @@
     <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4009,20 +4005,20 @@
     <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4038,21 +4034,19 @@
     <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4128,31 +4122,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.4282948622486968</v>
+        <v>0.3964032614493637</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.4098611390583803</v>
+        <v>0.426096051112445</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8173003732334793</v>
+        <v>0.7985645345304437</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.05470995610442634</v>
+        <v>0.058266012138442014</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>0.6945164370372252</v>
+        <v>0.7424518544233434</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.14385312882844697</v>
+        <v>0.15139331442470183</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5595238095238098</v>
+        <v>2.033333333333333</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.48489075843848334</v>
+        <v>0.44151403207924866</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.039943903674071746</v>
+        <v>-0.002732353062380422</v>
       </c>
     </row>
     <row r="7">
@@ -4202,28 +4196,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.4527463850367667</v>
+        <v>0.433098343320409</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.44004581543158094</v>
+        <v>0.49285411310525806</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8018083849437543</v>
+        <v>0.8275752152472176</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.06667823702327935</v>
+        <v>0.08117556648962392</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>0.7858603927939986</v>
+        <v>0.9718192059547351</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.13875404654247206</v>
+        <v>0.1431759078523986</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.07449544217868374</v>
+        <v>0.11744909717688125</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.06272441723910722</v>
+        <v>0.040199687565991966</v>
       </c>
     </row>
     <row r="12">
@@ -4231,28 +4225,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.4051057933166339</v>
+        <v>0.37435963444458753</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.36725978770805595</v>
+        <v>0.41097199405852636</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.7708702889563482</v>
+        <v>0.7894896411915067</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.050121418416399034</v>
+        <v>0.05964517995128263</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>0.5804274496443786</v>
+        <v>0.697712145964348</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.15015818165093506</v>
+        <v>0.15711670173953235</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.0794925215172019</v>
+        <v>0.12413684046235816</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.025052847220195205</v>
+        <v>-0.02965214506434171</v>
       </c>
     </row>
     <row r="13">
@@ -4260,28 +4254,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.37122636103151874</v>
+        <v>0.3404727511490479</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.34633211063978087</v>
+        <v>0.3388741624153228</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.6989065899371141</v>
+        <v>0.7346581721724967</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.04595288130608543</v>
+        <v>0.044522751124924494</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>0.5298288569425601</v>
+        <v>0.5125713489785063</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.15904463296994786</v>
+        <v>0.16752393508867608</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.07285619073698216</v>
+        <v>0.09884864741465504</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.025052847220195205</v>
+        <v>-0.022648000802348224</v>
       </c>
     </row>
     <row r="14">
@@ -4289,28 +4283,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.3314519170333124</v>
+        <v>0.2907273736812882</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.31765801384810655</v>
+        <v>0.3426112752924501</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.7016091082978055</v>
+        <v>0.7492570704831727</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.040603472582440764</v>
+        <v>0.04523585631998184</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>0.4655407703101447</v>
+        <v>0.5211699903202116</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.17051622177444817</v>
+        <v>0.18044434362646736</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.07272455850835585</v>
+        <v>0.09360779198734552</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.006589365569853713</v>
+        <v>-0.00913926503306938</v>
       </c>
     </row>
     <row r="15">
@@ -4318,28 +4312,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.3637789946471421</v>
+        <v>0.3066627703097604</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.39349489099238755</v>
+        <v>0.33642912246896445</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.7415331774578457</v>
+        <v>0.7283497258965653</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.055695972467220724</v>
+        <v>0.044059972999073695</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>0.6487907276432335</v>
+        <v>0.5069980221566148</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.16121909782157148</v>
+        <v>0.17531684069670064</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.06106629649339643</v>
+        <v>0.093083267375487</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.025052847220195205</v>
+        <v>-0.00913926503306938</v>
       </c>
     </row>
     <row r="16">
@@ -4347,28 +4341,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.3792642354446577</v>
+        <v>0.37286501377410475</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.3862696317238919</v>
+        <v>0.4076113861343827</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.7348111884827397</v>
+        <v>0.7758693001396544</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.05411982576233363</v>
+        <v>0.05887031906239496</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>0.6293800204296147</v>
+        <v>0.6880810613062338</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.1564201675196528</v>
+        <v>0.15946930113633156</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.06144271214032909</v>
+        <v>0.10174563822016962</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.025052847220195205</v>
+        <v>0.0036745589083085352</v>
       </c>
     </row>
     <row r="17">
@@ -4376,28 +4370,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.40284867821330905</v>
+        <v>0.33776564774381374</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.41869033217724994</v>
+        <v>0.372632925593214</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.7909773201638708</v>
+        <v>0.7542636301750281</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.06145374885333003</v>
+        <v>0.05123038128954624</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>0.7202535160741809</v>
+        <v>0.5939631529843373</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.1520082793386881</v>
+        <v>0.1678380143634008</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.06981342179505452</v>
+        <v>0.10528328549441136</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.05483496012794828</v>
+        <v>-0.00913926503306938</v>
       </c>
     </row>
     <row r="18">
@@ -4405,28 +4399,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.3899127656960314</v>
+        <v>0.35915141430948416</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.39229459590178734</v>
+        <v>0.3768217789170161</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.7782333007626796</v>
+        <v>0.773271797208068</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.05543190621833179</v>
+        <v>0.05210635054146302</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>0.645534157268063</v>
+        <v>0.604677387894205</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.1551291600300498</v>
+        <v>0.16258036397450085</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.06994186744740828</v>
+        <v>0.10778958005672354</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.025052847220195205</v>
+        <v>-0.00913926503306938</v>
       </c>
     </row>
     <row r="19">
@@ -4434,28 +4428,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.45703104058328425</v>
+        <v>0.4568869051361037</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.3827455579107066</v>
+        <v>0.4503885383168889</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.7857933919820406</v>
+        <v>0.8112994480891724</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.05336259149484044</v>
+        <v>0.0693319876391889</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>0.620077445883067</v>
+        <v>0.8194671503713453</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.13180562684280162</v>
+        <v>0.12967396947070914</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.07126027767404608</v>
+        <v>0.11469654151945122</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.025052847220195205</v>
+        <v>0.0036745589083085352</v>
       </c>
     </row>
     <row r="20">
@@ -4463,28 +4457,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.3884816456415503</v>
+        <v>0.35714680292777246</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.33978367121370284</v>
+        <v>0.3867447658719247</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.7828147002910979</v>
+        <v>0.7843079569697542</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.04469565547956266</v>
+        <v>0.05422249250574431</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>0.5146550553185212</v>
+        <v>0.630642421538884</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.15025683278588906</v>
+        <v>0.15533904006158084</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.0748932728187489</v>
+        <v>0.12025442151744245</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>-0.0049168701063760645</v>
+        <v>-0.022648000802348224</v>
       </c>
     </row>
     <row r="21">
@@ -4492,28 +4486,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.4520432199918067</v>
+        <v>0.42204444997821083</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.41494553138212775</v>
+        <v>0.454636350885245</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.7935356633247193</v>
+        <v>0.7786132323327549</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.06057117359139319</v>
+        <v>0.07044653839875695</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>0.7092425639656961</v>
+        <v>0.8336388969510887</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.1354349191870282</v>
+        <v>0.14073834217815048</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.06740616204547664</v>
+        <v>0.11069641450621569</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.06424631430607369</v>
+        <v>0.040199687565991966</v>
       </c>
     </row>
     <row r="22">
@@ -4521,28 +4515,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.4556492326332796</v>
+        <v>0.40787138992009064</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.44458498220129905</v>
+        <v>0.44657896707975636</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8139281795874284</v>
+        <v>0.7916570230206834</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.06783259005789904</v>
+        <v>0.0683447493393231</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>0.8004554575483765</v>
+        <v>0.8069425275062055</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.13726149946632035</v>
+        <v>0.14763134710941062</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.07355351521029423</v>
+        <v>0.12081622259449332</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.06424631430607369</v>
+        <v>0.040199687565991966</v>
       </c>
     </row>
     <row r="23">
@@ -4592,16 +4586,16 @@
         <v>35.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.03882833885549858</v>
+        <v>-0.0015307759693556392</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.21521410576314925</v>
+        <v>0.08583740273904367</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.13153445780189948</v>
+        <v>-0.06770290689000648</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>-0.08557033525478087</v>
+        <v>-0.13711856277443008</v>
       </c>
       <c r="G27" t="n" s="89">
         <v>3.657142857142857</v>
@@ -4618,16 +4612,16 @@
         <v>35.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.31771059010588704</v>
+        <v>0.3058276104157105</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.42291746588503254</v>
+        <v>0.35269488084709016</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.3686679443659825</v>
+        <v>0.27066616647158215</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.18633093631012054</v>
+        <v>0.1600752145825231</v>
       </c>
       <c r="G28" t="n" s="89">
         <v>4.3428571428571425</v>
@@ -4644,22 +4638,22 @@
         <v>35.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.45694547704053423</v>
+        <v>0.5683511341837519</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.4752112781905624</v>
+        <v>0.5401291943130321</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.48713013197454286</v>
+        <v>0.5871974782444344</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.29428747024601143</v>
+        <v>0.5075354909577939</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.4285714285714284</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0651074037450894</v>
+        <v>0.4434395736311599</v>
       </c>
     </row>
     <row r="30">
@@ -4670,22 +4664,22 @@
         <v>35.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5636854596921536</v>
+        <v>0.5724945773079435</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5423189872829713</v>
+        <v>0.5312906417101854</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5572273536323213</v>
+        <v>0.5847784408561224</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.3689639662500243</v>
+        <v>0.33074176551661644</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.0</v>
+        <v>0.8</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3719886811400708</v>
+        <v>1.5107458228227773</v>
       </c>
     </row>
     <row r="31">
@@ -4696,22 +4690,22 @@
         <v>35.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5018752591857775</v>
+        <v>0.582081220093963</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.35298533489849343</v>
+        <v>0.5458650784955195</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.3828951538805388</v>
+        <v>0.6056911272356837</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.2696869689628096</v>
+        <v>0.2792461387018315</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.5107458228227773</v>
+        <v>1.8311038136792213</v>
       </c>
     </row>
     <row r="32">
@@ -4722,22 +4716,22 @@
         <v>35.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5134473385417992</v>
+        <v>0.3596259427021796</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.3727579116490801</v>
+        <v>0.3622988618218347</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.40494549204551294</v>
+        <v>0.34403277268604177</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.22564182626673177</v>
+        <v>0.29922716772490177</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.8311038136792213</v>
+        <v>0.35503580124836315</v>
       </c>
     </row>
     <row r="33">
@@ -4748,16 +4742,16 @@
         <v>35.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.3914012309441391</v>
+        <v>0.4726660349590209</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.28075470106595457</v>
+        <v>0.4569917519533781</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.22904556450719163</v>
+        <v>0.45582432873276807</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.16761364252133598</v>
+        <v>0.23664425890487556</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>2.6857142857142855</v>
@@ -4774,16 +4768,16 @@
         <v>35.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.47414872849439715</v>
+        <v>0.4847132271203291</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.3562980152201961</v>
+        <v>0.4461345875894021</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.31483025576733337</v>
+        <v>0.4157461426684324</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.20165472281117408</v>
+        <v>0.18326674258063455</v>
       </c>
       <c r="G34" t="n" s="89">
         <v>3.085714285714286</v>
@@ -4800,16 +4794,16 @@
         <v>35.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.2725773380243273</v>
+        <v>0.2254978022865937</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.38225732729722944</v>
+        <v>0.23263214691015208</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.32056820926790164</v>
+        <v>0.11476674177259728</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.015943281302456588</v>
+        <v>-0.058417513118548696</v>
       </c>
       <c r="G35" t="n" s="89">
         <v>1.3714285714285714</v>
@@ -4826,16 +4820,16 @@
         <v>35.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.4101009449001412</v>
+        <v>0.4070744167840513</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.49098302968467344</v>
+        <v>0.4199061542586266</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.4310360282775425</v>
+        <v>0.34385226631958304</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.2186136312374187</v>
+        <v>0.1944687092892214</v>
       </c>
       <c r="G36" t="n" s="89">
         <v>2.5142857142857142</v>
@@ -4852,16 +4846,16 @@
         <v>35.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.17565808735576324</v>
+        <v>0.1960594990819521</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.2918265048839027</v>
+        <v>0.21881789399871074</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.23035475147188936</v>
+        <v>0.15552513728915623</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>-0.015330175371069205</v>
+        <v>-0.013697223457657148</v>
       </c>
       <c r="G37" t="n" s="89">
         <v>2.057142857142857</v>
@@ -4878,16 +4872,16 @@
         <v>35.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.13581766124715966</v>
+        <v>0.22174261765486575</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.20073288145609713</v>
+        <v>0.24486843084888704</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.10533806929262088</v>
+        <v>0.15505102899969642</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>-0.04179646447150351</v>
+        <v>0.02774456215300604</v>
       </c>
       <c r="G38" t="n" s="89">
         <v>1.7714285714285714</v>
@@ -4992,22 +4986,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.05714285714285714</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.0</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.02857142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.34285714285714286</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5142857142857142</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.05714285714285714</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5018,22 +5012,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="C46" t="n" s="110">
         <v>0.05714285714285714</v>
       </c>
-      <c r="C46" t="n" s="110">
-        <v>0.0</v>
-      </c>
       <c r="D46" t="n" s="111">
-        <v>0.02857142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.2571428571428571</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.11428571428571428</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5428571428571428</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,19 +5041,19 @@
         <v>0.7428571428571429</v>
       </c>
       <c r="C47" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D47" t="n" s="111">
         <v>0.05714285714285714</v>
       </c>
-      <c r="D47" t="n" s="111">
-        <v>0.0</v>
-      </c>
       <c r="E47" t="n" s="112">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="F47" t="n" s="113">
         <v>0.05714285714285714</v>
       </c>
-      <c r="F47" t="n" s="113">
-        <v>0.14285714285714285</v>
-      </c>
       <c r="G47" t="n" s="114">
-        <v>0.0</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5070,22 +5064,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.7428571428571429</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.05714285714285714</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.02857142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.05714285714285714</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.11428571428571428</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5323,31 +5317,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.550922654102866</v>
+        <v>0.875</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.5278238608919958</v>
+        <v>0.9807421336079052</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.7077989137742059</v>
+        <v>0.9788519879601726</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.2184223686789876</v>
+        <v>0.9443690669746552</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>1.1178537354494802</v>
+        <v>50.926832372795786</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.11486190386926354</v>
+        <v>0.006635807819235145</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.857142857142857</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.667759957877483</v>
+        <v>1.2470693937504567</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.16470025352807446</v>
+        <v>0.941774692349554</v>
       </c>
     </row>
     <row r="7">
@@ -5394,118 +5388,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.6032116387592643</v>
+        <v>0.9797657082002131</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.5519836492719061</v>
+        <v>0.9889532690066787</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.6168758152816731</v>
+        <v>0.9781479319309639</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.2911255954857596</v>
+        <v>0.9781479319309638</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>1.2320613932389963</v>
+        <v>89.52451812256386</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.0981522789281005</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.15909099930668882</v>
-      </c>
+        <v>0.00500729676989595</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.13359790710669767</v>
+        <v>0.9781479319309638</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.581614870752251</v>
+        <v>0.6022501654533419</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.531120953722616</v>
+        <v>0.9700143853559069</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.6680420270635776</v>
+        <v>0.941774692349554</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.274090432527818</v>
+        <v>0.941774692349554</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>1.132746191026012</v>
+        <v>32.34932473018338</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.1046038624167484</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.19075567878955638</v>
-      </c>
+        <v>0.022922195280915363</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.19580259994945126</v>
+        <v>0.941774692349554</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.2028571428571429</v>
+        <v>0.660916931457104</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.2999697482126684</v>
+        <v>0.9546225573755858</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.2980617095270195</v>
+        <v>0.9131845766434478</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.12498424425796428</v>
+        <v>0.9131845766434479</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>0.42850969289795626</v>
+        <v>21.03738117806525</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.2271196026259895</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.05713098962358758</v>
-      </c>
+        <v>0.029032485609496186</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.13359790710669767</v>
+        <v>0.9131845766434479</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.3543175487465182</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.4026893222047626</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.3534128854725309</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.18348920244440844</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>0.674170640463266</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.1920568805177832</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.033328549068446886</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.19580259994945126</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5514,268 +5478,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>35.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.948227528964372</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9698067488325383</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.941918345677618</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9339188791557061</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4434395736311599</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>35.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.39689907096372024</v>
+        <v>0.9907971518969244</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.5585220265549217</v>
+        <v>0.9821624463747298</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.386144125490741</v>
+        <v>0.9780688691197893</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.13532127862411933</v>
+        <v>0.9744286249251836</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.657142857142857</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.7252933338781401</v>
+        <v>1.5107458228227773</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>35.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.46467586965585655</v>
+        <v>0.9960570766025455</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.5783831362045074</v>
+        <v>0.9918742792063993</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.35713543138695314</v>
+        <v>0.9925617024463741</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.18243834714509996</v>
+        <v>0.9850116281335333</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.3428571428571425</v>
+        <v>1.0</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.8023075962444807</v>
+        <v>1.8311038136792213</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>35.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8329681178504493</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.7522244056993065</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7509459858361252</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6173419725817378</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.4285714285714284</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0651074037450894</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>35.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.818635100372466</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.6840141166369587</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.6705804621366249</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.4690081693879609</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.0</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3719886811400708</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.0</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="C27" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="226">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="E27" t="n" s="227">
         <v>0.02857142857142857</v>
       </c>
-      <c r="D27" t="n" s="226">
-        <v>0.4</v>
-      </c>
-      <c r="E27" t="n" s="227">
-        <v>0.45714285714285713</v>
-      </c>
       <c r="F27" t="n" s="228">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="G27" t="n" s="229">
         <v>0.11428571428571428</v>
       </c>
-      <c r="G27" t="n" s="229">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.2</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.5428571428571428</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.5428571428571428</v>
-      </c>
-      <c r="G30" t="n" s="229">
+      <c r="H27" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5805,7 +5727,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="231">
+      <c r="A1" t="s" s="232">
         <v>45</v>
       </c>
     </row>
@@ -5820,66 +5742,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="245">
+      <c r="A4" t="s" s="246">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="259">
+      <c r="A5" t="s" s="260">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="259">
+      <c r="B5" t="s" s="260">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="259">
+      <c r="C5" t="s" s="260">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="259">
+      <c r="D5" t="s" s="260">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="259">
+      <c r="E5" t="s" s="260">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="259">
+      <c r="F5" t="s" s="260">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="259">
+      <c r="G5" t="s" s="260">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="259">
+      <c r="H5" t="s" s="260">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="259">
+      <c r="I5" t="s" s="260">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="260">
-        <v>0.8415255965735262</v>
-      </c>
-      <c r="B6" t="n" s="261">
-        <v>0.853292155505881</v>
-      </c>
-      <c r="C6" t="n" s="262">
-        <v>0.7441234134770558</v>
-      </c>
-      <c r="D6" t="n" s="263">
-        <v>0.744123413477056</v>
-      </c>
-      <c r="E6" t="n" s="264">
-        <v>5.8162680969665965</v>
-      </c>
-      <c r="F6" t="n" s="265">
-        <v>0.050836048070997404</v>
-      </c>
-      <c r="G6" t="n" s="266">
-        <v>2.8857142857142857</v>
-      </c>
-      <c r="H6" t="n" s="267">
-        <v>1.4352992836385885</v>
-      </c>
-      <c r="I6" t="n" s="268">
-        <v>0.744123413477056</v>
+      <c r="A6" t="n" s="261">
+        <v>0.7697895791583166</v>
+      </c>
+      <c r="B6" t="n" s="262">
+        <v>0.9091172208678275</v>
+      </c>
+      <c r="C6" t="n" s="263">
+        <v>0.8723106941713445</v>
+      </c>
+      <c r="D6" t="n" s="264">
+        <v>0.7692872875759257</v>
+      </c>
+      <c r="E6" t="n" s="265">
+        <v>10.003184646737989</v>
+      </c>
+      <c r="F6" t="n" s="266">
+        <v>0.03483406174148307</v>
+      </c>
+      <c r="G6" t="n" s="267">
+        <v>2.2095238095238097</v>
+      </c>
+      <c r="H6" t="n" s="268">
+        <v>1.0574532060158337</v>
+      </c>
+      <c r="I6" t="n" s="269">
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -5893,86 +5815,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="272">
+      <c r="A9" t="s" s="273">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="286">
+      <c r="B10" t="s" s="287">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="286">
+      <c r="C10" t="s" s="287">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="286">
+      <c r="D10" t="s" s="287">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="286">
+      <c r="E10" t="s" s="287">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="286">
+      <c r="F10" t="s" s="287">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="286">
+      <c r="G10" t="s" s="287">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="286">
+      <c r="H10" t="s" s="287">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="286">
+      <c r="I10" t="s" s="287">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="282">
+      <c r="A11" t="s" s="283">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n" s="288">
+        <v>0.8415255965735262</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.853292155505881</v>
+      </c>
+      <c r="D11" t="n" s="290">
+        <v>0.7441234134770558</v>
+      </c>
+      <c r="E11" t="n" s="291">
+        <v>0.744123413477056</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>5.8162680969665965</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.050836048070997404</v>
+      </c>
+      <c r="H11" s="294"/>
+      <c r="I11" t="n" s="295">
+        <v>0.744123413477056</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="283">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="287">
-        <v>0.7441234134770559</v>
-      </c>
-      <c r="C11" t="n" s="288">
-        <v>0.7441234134770559</v>
-      </c>
-      <c r="D11" t="n" s="289">
-        <v>0.5537196544847451</v>
-      </c>
-      <c r="E11" t="n" s="290">
-        <v>0.7441234134770559</v>
-      </c>
-      <c r="F11" s="291"/>
-      <c r="G11" s="292"/>
-      <c r="H11" t="n" s="293">
-        <v>0.7441234134770559</v>
-      </c>
-      <c r="I11" t="n" s="294">
-        <v>0.7441234134770559</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="282">
+      <c r="B12" t="n" s="288">
+        <v>0.4609475032010244</v>
+      </c>
+      <c r="C12" t="n" s="289">
+        <v>0.8571428571428572</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.75</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.75</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>6.0</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.050449950096356826</v>
+      </c>
+      <c r="H12" s="294"/>
+      <c r="I12" t="n" s="295">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="283">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="287">
-        <v>0.5537196544847451</v>
-      </c>
-      <c r="C12" t="n" s="288">
-        <v>0.7441234134770559</v>
-      </c>
-      <c r="D12" s="289"/>
-      <c r="E12" s="290"/>
-      <c r="F12" s="291"/>
-      <c r="G12" s="292"/>
-      <c r="H12" t="n" s="293">
-        <v>0.5537196544847451</v>
-      </c>
-      <c r="I12" t="n" s="294">
-        <v>0.7441234134770559</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="288">
+        <v>0.5672902836451417</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.8973051760433122</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.8137384492507213</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.8137384492507214</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>8.737589115706134</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.04505404066690631</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.8137384492507214</v>
       </c>
     </row>
     <row r="14">
@@ -5981,174 +5933,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="298">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="299">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="312">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="312">
+      <c r="C17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="312">
+      <c r="D17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="312">
+      <c r="E17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="312">
+      <c r="F17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="312">
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="312">
+      <c r="H17" t="s" s="313">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="308">
+    <row r="18">
+      <c r="A18" t="s" s="309">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n" s="314">
+        <v>35.0</v>
+      </c>
+      <c r="C18" t="n" s="315">
+        <v>0.8654788633359675</v>
+      </c>
+      <c r="D18" t="n" s="316">
+        <v>0.9290051601517357</v>
+      </c>
+      <c r="E18" t="n" s="317">
+        <v>0.8817540411170072</v>
+      </c>
+      <c r="F18" t="n" s="318">
+        <v>0.8327790664717785</v>
+      </c>
+      <c r="G18" t="n" s="319">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.35503580124836315</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="313">
+      <c r="B19" t="n" s="314">
         <v>35.0</v>
       </c>
-      <c r="C17" t="n" s="314">
-        <v>0.9179946445585778</v>
-      </c>
-      <c r="D17" t="n" s="315">
-        <v>0.9338424421381415</v>
-      </c>
-      <c r="E17" t="n" s="316">
-        <v>0.8055566609375783</v>
-      </c>
-      <c r="F17" t="n" s="317">
-        <v>0.7441234134770559</v>
-      </c>
-      <c r="G17" t="n" s="318">
+      <c r="C19" t="n" s="315">
+        <v>0.9217430385695073</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9268756998686523</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8772077334207129</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7846331563189227</v>
+      </c>
+      <c r="G19" t="n" s="319">
         <v>2.6857142857142855</v>
       </c>
-      <c r="H17" t="n" s="319">
+      <c r="H19" t="n" s="320">
         <v>1.367079940246806</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="308">
+    <row r="20">
+      <c r="A20" t="s" s="309">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="313">
+      <c r="B20" t="n" s="314">
         <v>35.0</v>
       </c>
-      <c r="C18" t="n" s="314">
-        <v>0.9480420106967296</v>
-      </c>
-      <c r="D18" t="n" s="315">
-        <v>0.9338424421381414</v>
-      </c>
-      <c r="E18" t="n" s="316">
-        <v>0.8055566609375785</v>
-      </c>
-      <c r="F18" t="n" s="317">
-        <v>0.7441234134770558</v>
-      </c>
-      <c r="G18" t="n" s="318">
+      <c r="C20" t="n" s="315">
+        <v>0.9417989283320091</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.9037792142379534</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.8184938021055154</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7691500084758139</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.085714285714286</v>
       </c>
-      <c r="H18" t="n" s="319">
+      <c r="H20" t="n" s="320">
         <v>1.704171845992143</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="323">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="337">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="337">
+      <c r="C24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="337">
+      <c r="D24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="337">
+      <c r="E24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="337">
+      <c r="F24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="337">
+      <c r="G24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="337">
+      <c r="H24" t="s" s="338">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="333">
+    <row r="25">
+      <c r="A25" t="s" s="334">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="339">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C25" t="n" s="340">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="338">
+      <c r="B26" t="n" s="339">
         <v>0.14285714285714285</v>
       </c>
-      <c r="C23" t="n" s="339">
+      <c r="C26" t="n" s="340">
         <v>0.08571428571428572</v>
       </c>
-      <c r="D23" t="n" s="340">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="341">
+      <c r="D26" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="342">
         <v>0.4857142857142857</v>
       </c>
-      <c r="F23" t="n" s="342">
+      <c r="F26" t="n" s="343">
         <v>0.2857142857142857</v>
       </c>
-      <c r="G23" t="n" s="343">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="n" s="344">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="333">
+      <c r="G26" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="338">
+      <c r="B27" t="n" s="339">
         <v>0.14285714285714285</v>
       </c>
-      <c r="C24" t="n" s="339">
+      <c r="C27" t="n" s="340">
         <v>0.02857142857142857</v>
       </c>
-      <c r="D24" t="n" s="340">
+      <c r="D27" t="n" s="341">
         <v>0.17142857142857143</v>
       </c>
-      <c r="E24" t="n" s="341">
+      <c r="E27" t="n" s="342">
         <v>0.17142857142857143</v>
       </c>
-      <c r="F24" t="n" s="342">
+      <c r="F27" t="n" s="343">
         <v>0.22857142857142856</v>
       </c>
-      <c r="G24" t="n" s="343">
+      <c r="G27" t="n" s="344">
         <v>0.2571428571428571</v>
       </c>
-      <c r="H24" t="n" s="344">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6178,7 +6187,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="346">
+      <c r="A1" t="s" s="347">
         <v>46</v>
       </c>
     </row>
@@ -6193,66 +6202,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="360">
+      <c r="A4" t="s" s="361">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="374">
+      <c r="A5" t="s" s="375">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="374">
+      <c r="B5" t="s" s="375">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="374">
+      <c r="C5" t="s" s="375">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="374">
+      <c r="D5" t="s" s="375">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="374">
+      <c r="E5" t="s" s="375">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="374">
+      <c r="F5" t="s" s="375">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="374">
+      <c r="G5" t="s" s="375">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="374">
+      <c r="H5" t="s" s="375">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="374">
+      <c r="I5" t="s" s="375">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="375">
-        <v>0.7704770477047707</v>
-      </c>
-      <c r="B6" t="n" s="376">
-        <v>0.7717500669374575</v>
-      </c>
-      <c r="C6" t="n" s="377">
-        <v>0.6283330828385724</v>
-      </c>
-      <c r="D6" t="n" s="378">
-        <v>0.6283330828385725</v>
-      </c>
-      <c r="E6" t="n" s="379">
-        <v>3.3811622925032423</v>
-      </c>
-      <c r="F6" t="n" s="380">
-        <v>0.07724980531176906</v>
-      </c>
-      <c r="G6" t="n" s="381">
-        <v>1.9142857142857144</v>
-      </c>
-      <c r="H6" t="n" s="382">
-        <v>0.9662367439598596</v>
-      </c>
-      <c r="I6" t="n" s="383">
-        <v>0.6283330828385725</v>
+      <c r="A6" t="n" s="376">
+        <v>0.5269841269841271</v>
+      </c>
+      <c r="B6" t="n" s="377">
+        <v>0.528959503570251</v>
+      </c>
+      <c r="C6" t="n" s="378">
+        <v>0.3595818774901499</v>
+      </c>
+      <c r="D6" t="n" s="379">
+        <v>0.3595818774901498</v>
+      </c>
+      <c r="E6" t="n" s="380">
+        <v>1.1229597191313683</v>
+      </c>
+      <c r="F6" t="n" s="381">
+        <v>0.15897837874680185</v>
+      </c>
+      <c r="G6" t="n" s="382">
+        <v>4.0</v>
+      </c>
+      <c r="H6" t="n" s="383">
+        <v>0.6301260378126043</v>
+      </c>
+      <c r="I6" t="n" s="384">
+        <v>0.3595818774901499</v>
       </c>
     </row>
     <row r="7">
@@ -6266,81 +6275,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="387">
+      <c r="A9" t="s" s="388">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="401">
+      <c r="B10" t="s" s="402">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="401">
+      <c r="C10" t="s" s="402">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="401">
+      <c r="D10" t="s" s="402">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="401">
+      <c r="E10" t="s" s="402">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="401">
+      <c r="F10" t="s" s="402">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="401">
+      <c r="G10" t="s" s="402">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="401">
+      <c r="H10" t="s" s="402">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="401">
+      <c r="I10" t="s" s="402">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="397">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="402">
-        <v>0.6283330828385725</v>
-      </c>
-      <c r="C11" t="n" s="403">
-        <v>0.6283330828385725</v>
-      </c>
-      <c r="D11" t="n" s="404">
-        <v>0.39480246298942423</v>
-      </c>
-      <c r="E11" t="n" s="405">
-        <v>0.6283330828385725</v>
-      </c>
-      <c r="F11" s="406"/>
-      <c r="G11" s="407"/>
-      <c r="H11" t="n" s="408">
-        <v>0.6283330828385725</v>
-      </c>
-      <c r="I11" t="n" s="409">
-        <v>0.6283330828385725</v>
+      <c r="A11" t="s" s="398">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="403">
+        <v>0.3595818774901499</v>
+      </c>
+      <c r="C11" t="n" s="404">
+        <v>0.3595818774901499</v>
+      </c>
+      <c r="D11" t="n" s="405">
+        <v>0.12929912661934106</v>
+      </c>
+      <c r="E11" t="n" s="406">
+        <v>0.3595818774901499</v>
+      </c>
+      <c r="F11" s="407"/>
+      <c r="G11" s="408"/>
+      <c r="H11" t="n" s="409">
+        <v>0.3595818774901499</v>
+      </c>
+      <c r="I11" t="n" s="410">
+        <v>0.3595818774901499</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="397">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="402">
-        <v>0.39480246298942423</v>
-      </c>
-      <c r="C12" t="n" s="403">
-        <v>0.6283330828385725</v>
-      </c>
-      <c r="D12" s="404"/>
-      <c r="E12" s="405"/>
-      <c r="F12" s="406"/>
-      <c r="G12" s="407"/>
-      <c r="H12" t="n" s="408">
-        <v>0.39480246298942423</v>
-      </c>
-      <c r="I12" t="n" s="409">
-        <v>0.6283330828385725</v>
+      <c r="A12" t="s" s="398">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="403">
+        <v>0.12929912661934106</v>
+      </c>
+      <c r="C12" t="n" s="404">
+        <v>0.3595818774901499</v>
+      </c>
+      <c r="D12" s="405"/>
+      <c r="E12" s="406"/>
+      <c r="F12" s="407"/>
+      <c r="G12" s="408"/>
+      <c r="H12" t="n" s="409">
+        <v>0.12929912661934106</v>
+      </c>
+      <c r="I12" t="n" s="410">
+        <v>0.3595818774901499</v>
       </c>
     </row>
     <row r="13">
@@ -6354,84 +6363,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="413">
+      <c r="A15" t="s" s="414">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="427">
+      <c r="B16" t="s" s="428">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="427">
+      <c r="C16" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="427">
+      <c r="D16" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="427">
+      <c r="E16" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="427">
+      <c r="F16" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="427">
+      <c r="G16" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="427">
+      <c r="H16" t="s" s="428">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="423">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="428">
+      <c r="A17" t="s" s="424">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n" s="429">
         <v>35.0</v>
       </c>
-      <c r="C17" t="n" s="429">
-        <v>0.9097209686528162</v>
-      </c>
-      <c r="D17" t="n" s="430">
-        <v>0.9023117761723418</v>
-      </c>
-      <c r="E17" t="n" s="431">
-        <v>0.7152396611723922</v>
-      </c>
-      <c r="F17" t="n" s="432">
-        <v>0.6283330828385725</v>
-      </c>
-      <c r="G17" t="n" s="433">
-        <v>2.057142857142857</v>
-      </c>
-      <c r="H17" t="n" s="434">
-        <v>1.1099246700156022</v>
+      <c r="C17" t="n" s="430">
+        <v>0.804433196555063</v>
+      </c>
+      <c r="D17" t="n" s="431">
+        <v>0.8244943533736753</v>
+      </c>
+      <c r="E17" t="n" s="432">
+        <v>0.49440924551907944</v>
+      </c>
+      <c r="F17" t="n" s="433">
+        <v>0.3595818774901499</v>
+      </c>
+      <c r="G17" t="n" s="434">
+        <v>3.657142857142857</v>
+      </c>
+      <c r="H17" t="n" s="435">
+        <v>0.7252933338781401</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="423">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="428">
+      <c r="A18" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n" s="429">
         <v>35.0</v>
       </c>
-      <c r="C18" t="n" s="429">
-        <v>0.894625970995622</v>
-      </c>
-      <c r="D18" t="n" s="430">
-        <v>0.9023117761723418</v>
-      </c>
-      <c r="E18" t="n" s="431">
-        <v>0.7152396611723922</v>
-      </c>
-      <c r="F18" t="n" s="432">
-        <v>0.6283330828385723</v>
-      </c>
-      <c r="G18" t="n" s="433">
-        <v>1.7714285714285714</v>
-      </c>
-      <c r="H18" t="n" s="434">
-        <v>1.0314385809239868</v>
+      <c r="C18" t="n" s="430">
+        <v>0.8435692791412904</v>
+      </c>
+      <c r="D18" t="n" s="431">
+        <v>0.8244943533736753</v>
+      </c>
+      <c r="E18" t="n" s="432">
+        <v>0.4944092455190798</v>
+      </c>
+      <c r="F18" t="n" s="433">
+        <v>0.3595818774901499</v>
+      </c>
+      <c r="G18" t="n" s="434">
+        <v>4.3428571428571425</v>
+      </c>
+      <c r="H18" t="n" s="435">
+        <v>0.8023075962444807</v>
       </c>
     </row>
     <row r="19">
@@ -6445,74 +6454,65 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="438">
+      <c r="A21" t="s" s="439">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="452">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="452">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="452">
+      <c r="B22" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="452">
+      <c r="C22" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="452">
+      <c r="D22" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="452">
+      <c r="E22" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s" s="453">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="448">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="453">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="C23" t="n" s="454">
+      <c r="A23" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B23" t="n" s="454">
         <v>0.02857142857142857</v>
       </c>
-      <c r="D23" t="n" s="455">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="E23" t="n" s="456">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F23" t="n" s="457">
+      <c r="C23" t="n" s="455">
+        <v>0.4</v>
+      </c>
+      <c r="D23" t="n" s="456">
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="E23" t="n" s="457">
         <v>0.11428571428571428</v>
       </c>
-      <c r="G23" t="n" s="458">
+      <c r="F23" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="448">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="453">
+      <c r="A24" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="C24" t="n" s="455">
         <v>0.2</v>
       </c>
-      <c r="C24" t="n" s="454">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="D24" t="n" s="455">
-        <v>0.6</v>
-      </c>
-      <c r="E24" t="n" s="456">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F24" t="n" s="457">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="G24" t="n" s="458">
+      <c r="D24" t="n" s="456">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="E24" t="n" s="457">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="F24" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
@@ -6592,31 +6592,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="489">
-        <v>0.9797657082002131</v>
+        <v>0.6238589864652189</v>
       </c>
       <c r="B6" t="n" s="490">
-        <v>0.9889532690066787</v>
+        <v>0.6345141111671098</v>
       </c>
       <c r="C6" t="n" s="491">
-        <v>0.9781479319309639</v>
+        <v>0.4646800939916287</v>
       </c>
       <c r="D6" t="n" s="492">
-        <v>0.9781479319309638</v>
+        <v>0.46468009399162846</v>
       </c>
       <c r="E6" t="n" s="493">
-        <v>89.52451812256386</v>
+        <v>1.7360837464705137</v>
       </c>
       <c r="F6" t="n" s="494">
-        <v>0.00500729676989595</v>
+        <v>0.12324002450002947</v>
       </c>
       <c r="G6" t="n" s="495">
-        <v>0.9</v>
+        <v>1.9428571428571428</v>
       </c>
       <c r="H6" t="n" s="496">
-        <v>1.661855801771728</v>
+        <v>1.155367452189922</v>
       </c>
       <c r="I6" t="n" s="497">
-        <v>0.9781479319309638</v>
+        <v>0.4646800939916285</v>
       </c>
     </row>
     <row r="7">
@@ -6663,48 +6663,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="511">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n" s="516">
-        <v>0.9781479319309638</v>
+        <v>0.4646800939916285</v>
       </c>
       <c r="C11" t="n" s="517">
-        <v>0.9781479319309638</v>
+        <v>0.4646800939916285</v>
       </c>
       <c r="D11" t="n" s="518">
-        <v>0.9567733767408216</v>
+        <v>0.21592758975206927</v>
       </c>
       <c r="E11" t="n" s="519">
-        <v>0.9781479319309638</v>
+        <v>0.4646800939916285</v>
       </c>
       <c r="F11" s="520"/>
       <c r="G11" s="521"/>
       <c r="H11" t="n" s="522">
-        <v>0.9781479319309638</v>
+        <v>0.4646800939916285</v>
       </c>
       <c r="I11" t="n" s="523">
-        <v>0.9781479319309638</v>
+        <v>0.4646800939916285</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="511">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" t="n" s="516">
-        <v>0.9567733767408216</v>
+        <v>0.21592758975206927</v>
       </c>
       <c r="C12" t="n" s="517">
-        <v>0.9781479319309638</v>
+        <v>0.4646800939916285</v>
       </c>
       <c r="D12" s="518"/>
       <c r="E12" s="519"/>
       <c r="F12" s="520"/>
       <c r="G12" s="521"/>
       <c r="H12" t="n" s="522">
-        <v>0.9567733767408216</v>
+        <v>0.21592758975206927</v>
       </c>
       <c r="I12" t="n" s="523">
-        <v>0.9781479319309638</v>
+        <v>0.4646800939916285</v>
       </c>
     </row>
     <row r="13">
@@ -6748,54 +6748,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="537">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n" s="542">
         <v>35.0</v>
       </c>
       <c r="C17" t="n" s="543">
-        <v>0.9934183903934005</v>
+        <v>0.8885283362741667</v>
       </c>
       <c r="D17" t="n" s="544">
-        <v>0.9945219786236411</v>
+        <v>0.855768687786492</v>
       </c>
       <c r="E17" t="n" s="545">
-        <v>0.9835957779168701</v>
+        <v>0.5833556735576068</v>
       </c>
       <c r="F17" t="n" s="546">
-        <v>0.9781479319309637</v>
+        <v>0.46468009399162863</v>
       </c>
       <c r="G17" t="n" s="547">
-        <v>0.8</v>
+        <v>1.3714285714285714</v>
       </c>
       <c r="H17" t="n" s="548">
-        <v>1.5107458228227773</v>
+        <v>1.4967752451366176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="537">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n" s="542">
         <v>35.0</v>
       </c>
       <c r="C18" t="n" s="543">
-        <v>0.9955246154386757</v>
+        <v>0.8191582844458315</v>
       </c>
       <c r="D18" t="n" s="544">
-        <v>0.9945219786236411</v>
+        <v>0.855768687786492</v>
       </c>
       <c r="E18" t="n" s="545">
-        <v>0.9835957779168701</v>
+        <v>0.5833556735576062</v>
       </c>
       <c r="F18" t="n" s="546">
-        <v>0.9781479319309635</v>
+        <v>0.46468009399162846</v>
       </c>
       <c r="G18" t="n" s="547">
-        <v>1.0</v>
+        <v>2.5142857142857142</v>
       </c>
       <c r="H18" t="n" s="548">
-        <v>1.8311038136792213</v>
+        <v>1.1973359784864694</v>
       </c>
     </row>
     <row r="19">
@@ -6831,61 +6831,52 @@
         <v>41</v>
       </c>
       <c r="G22" t="s" s="566">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="566">
         <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="562">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="567">
-        <v>0.7428571428571429</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="C23" t="n" s="568">
-        <v>0.05714285714285714</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="D23" t="n" s="569">
-        <v>0.0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E23" t="n" s="570">
-        <v>0.05714285714285714</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="F23" t="n" s="571">
-        <v>0.14285714285714285</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="G23" t="n" s="572">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="n" s="573">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="562">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="567">
-        <v>0.7428571428571429</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="C24" t="n" s="568">
-        <v>0.0</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="D24" t="n" s="569">
-        <v>0.05714285714285714</v>
+        <v>0.2</v>
       </c>
       <c r="E24" t="n" s="570">
-        <v>0.02857142857142857</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="F24" t="n" s="571">
-        <v>0.05714285714285714</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="G24" t="n" s="572">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="H24" t="n" s="573">
         <v>0.0</v>
       </c>
     </row>
@@ -6915,7 +6906,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="575">
+      <c r="A1" t="s" s="574">
         <v>48</v>
       </c>
     </row>
@@ -6930,66 +6921,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="589">
+      <c r="A4" t="s" s="588">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="603">
+      <c r="A5" t="s" s="602">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="603">
+      <c r="B5" t="s" s="602">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="603">
+      <c r="C5" t="s" s="602">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="603">
+      <c r="D5" t="s" s="602">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="603">
+      <c r="E5" t="s" s="602">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="603">
+      <c r="F5" t="s" s="602">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="603">
+      <c r="G5" t="s" s="602">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="603">
+      <c r="H5" t="s" s="602">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="603">
+      <c r="I5" t="s" s="602">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="604">
-        <v>0.6238589864652189</v>
-      </c>
-      <c r="B6" t="n" s="605">
-        <v>0.6345141111671098</v>
-      </c>
-      <c r="C6" t="n" s="606">
-        <v>0.4646800939916287</v>
-      </c>
-      <c r="D6" t="n" s="607">
-        <v>0.46468009399162846</v>
-      </c>
-      <c r="E6" t="n" s="608">
-        <v>1.7360837464705137</v>
-      </c>
-      <c r="F6" t="n" s="609">
-        <v>0.12324002450002947</v>
-      </c>
-      <c r="G6" t="n" s="610">
-        <v>1.9428571428571428</v>
-      </c>
-      <c r="H6" t="n" s="611">
-        <v>1.155367452189922</v>
-      </c>
-      <c r="I6" t="n" s="612">
-        <v>0.4646800939916285</v>
+      <c r="A6" t="n" s="603">
+        <v>0.7704770477047707</v>
+      </c>
+      <c r="B6" t="n" s="604">
+        <v>0.7717500669374575</v>
+      </c>
+      <c r="C6" t="n" s="605">
+        <v>0.6283330828385724</v>
+      </c>
+      <c r="D6" t="n" s="606">
+        <v>0.6283330828385725</v>
+      </c>
+      <c r="E6" t="n" s="607">
+        <v>3.3811622925032423</v>
+      </c>
+      <c r="F6" t="n" s="608">
+        <v>0.07724980531176906</v>
+      </c>
+      <c r="G6" t="n" s="609">
+        <v>1.9142857142857144</v>
+      </c>
+      <c r="H6" t="n" s="610">
+        <v>0.9662367439598596</v>
+      </c>
+      <c r="I6" t="n" s="611">
+        <v>0.6283330828385725</v>
       </c>
     </row>
     <row r="7">
@@ -7003,81 +6994,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="616">
+      <c r="A9" t="s" s="615">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="630">
+      <c r="B10" t="s" s="629">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="630">
+      <c r="C10" t="s" s="629">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="630">
+      <c r="D10" t="s" s="629">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="630">
+      <c r="E10" t="s" s="629">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="630">
+      <c r="F10" t="s" s="629">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="630">
+      <c r="G10" t="s" s="629">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="630">
+      <c r="H10" t="s" s="629">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="630">
+      <c r="I10" t="s" s="629">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="626">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n" s="631">
-        <v>0.4646800939916285</v>
-      </c>
-      <c r="C11" t="n" s="632">
-        <v>0.4646800939916285</v>
-      </c>
-      <c r="D11" t="n" s="633">
-        <v>0.21592758975206927</v>
-      </c>
-      <c r="E11" t="n" s="634">
-        <v>0.4646800939916285</v>
-      </c>
-      <c r="F11" s="635"/>
-      <c r="G11" s="636"/>
-      <c r="H11" t="n" s="637">
-        <v>0.4646800939916285</v>
-      </c>
-      <c r="I11" t="n" s="638">
-        <v>0.4646800939916285</v>
+      <c r="A11" t="s" s="625">
+        <v>28</v>
+      </c>
+      <c r="B11" t="n" s="630">
+        <v>0.6283330828385725</v>
+      </c>
+      <c r="C11" t="n" s="631">
+        <v>0.6283330828385725</v>
+      </c>
+      <c r="D11" t="n" s="632">
+        <v>0.39480246298942423</v>
+      </c>
+      <c r="E11" t="n" s="633">
+        <v>0.6283330828385725</v>
+      </c>
+      <c r="F11" s="634"/>
+      <c r="G11" s="635"/>
+      <c r="H11" t="n" s="636">
+        <v>0.6283330828385725</v>
+      </c>
+      <c r="I11" t="n" s="637">
+        <v>0.6283330828385725</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="626">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="631">
-        <v>0.21592758975206927</v>
-      </c>
-      <c r="C12" t="n" s="632">
-        <v>0.4646800939916285</v>
-      </c>
-      <c r="D12" s="633"/>
-      <c r="E12" s="634"/>
-      <c r="F12" s="635"/>
-      <c r="G12" s="636"/>
-      <c r="H12" t="n" s="637">
-        <v>0.21592758975206927</v>
-      </c>
-      <c r="I12" t="n" s="638">
-        <v>0.4646800939916285</v>
+      <c r="A12" t="s" s="625">
+        <v>29</v>
+      </c>
+      <c r="B12" t="n" s="630">
+        <v>0.39480246298942423</v>
+      </c>
+      <c r="C12" t="n" s="631">
+        <v>0.6283330828385725</v>
+      </c>
+      <c r="D12" s="632"/>
+      <c r="E12" s="633"/>
+      <c r="F12" s="634"/>
+      <c r="G12" s="635"/>
+      <c r="H12" t="n" s="636">
+        <v>0.39480246298942423</v>
+      </c>
+      <c r="I12" t="n" s="637">
+        <v>0.6283330828385725</v>
       </c>
     </row>
     <row r="13">
@@ -7091,84 +7082,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="642">
+      <c r="A15" t="s" s="641">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="656">
+      <c r="B16" t="s" s="655">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="656">
+      <c r="C16" t="s" s="655">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="656">
+      <c r="D16" t="s" s="655">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="656">
+      <c r="E16" t="s" s="655">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="656">
+      <c r="F16" t="s" s="655">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="656">
+      <c r="G16" t="s" s="655">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="656">
+      <c r="H16" t="s" s="655">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="652">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n" s="657">
+      <c r="A17" t="s" s="651">
+        <v>28</v>
+      </c>
+      <c r="B17" t="n" s="656">
         <v>35.0</v>
       </c>
-      <c r="C17" t="n" s="658">
-        <v>0.8885283362741667</v>
-      </c>
-      <c r="D17" t="n" s="659">
-        <v>0.855768687786492</v>
-      </c>
-      <c r="E17" t="n" s="660">
-        <v>0.5833556735576068</v>
-      </c>
-      <c r="F17" t="n" s="661">
-        <v>0.46468009399162863</v>
-      </c>
-      <c r="G17" t="n" s="662">
-        <v>1.3714285714285714</v>
-      </c>
-      <c r="H17" t="n" s="663">
-        <v>1.4967752451366176</v>
+      <c r="C17" t="n" s="657">
+        <v>0.9097209686528162</v>
+      </c>
+      <c r="D17" t="n" s="658">
+        <v>0.9023117761723418</v>
+      </c>
+      <c r="E17" t="n" s="659">
+        <v>0.7152396611723922</v>
+      </c>
+      <c r="F17" t="n" s="660">
+        <v>0.6283330828385725</v>
+      </c>
+      <c r="G17" t="n" s="661">
+        <v>2.057142857142857</v>
+      </c>
+      <c r="H17" t="n" s="662">
+        <v>1.1099246700156022</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="652">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="657">
+      <c r="A18" t="s" s="651">
+        <v>29</v>
+      </c>
+      <c r="B18" t="n" s="656">
         <v>35.0</v>
       </c>
-      <c r="C18" t="n" s="658">
-        <v>0.8191582844458315</v>
-      </c>
-      <c r="D18" t="n" s="659">
-        <v>0.855768687786492</v>
-      </c>
-      <c r="E18" t="n" s="660">
-        <v>0.5833556735576062</v>
-      </c>
-      <c r="F18" t="n" s="661">
-        <v>0.46468009399162846</v>
-      </c>
-      <c r="G18" t="n" s="662">
-        <v>2.5142857142857142</v>
-      </c>
-      <c r="H18" t="n" s="663">
-        <v>1.1973359784864694</v>
+      <c r="C18" t="n" s="657">
+        <v>0.894625970995622</v>
+      </c>
+      <c r="D18" t="n" s="658">
+        <v>0.9023117761723418</v>
+      </c>
+      <c r="E18" t="n" s="659">
+        <v>0.7152396611723922</v>
+      </c>
+      <c r="F18" t="n" s="660">
+        <v>0.6283330828385723</v>
+      </c>
+      <c r="G18" t="n" s="661">
+        <v>1.7714285714285714</v>
+      </c>
+      <c r="H18" t="n" s="662">
+        <v>1.0314385809239868</v>
       </c>
     </row>
     <row r="19">
@@ -7182,74 +7173,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="667">
+      <c r="A21" t="s" s="666">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="681">
+      <c r="B22" t="s" s="680">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="681">
+      <c r="C22" t="s" s="680">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="681">
+      <c r="D22" t="s" s="680">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="681">
+      <c r="E22" t="s" s="680">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="681">
+      <c r="F22" t="s" s="680">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="681">
+      <c r="G22" t="s" s="680">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="677">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n" s="682">
-        <v>0.45714285714285713</v>
-      </c>
-      <c r="C23" t="n" s="683">
+      <c r="A23" t="s" s="676">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n" s="681">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C23" t="n" s="682">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="D23" t="n" s="683">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E23" t="n" s="684">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F23" t="n" s="685">
         <v>0.11428571428571428</v>
       </c>
-      <c r="D23" t="n" s="684">
+      <c r="G23" t="n" s="686">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="676">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n" s="681">
+        <v>0.2</v>
+      </c>
+      <c r="C24" t="n" s="682">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="D24" t="n" s="683">
+        <v>0.6</v>
+      </c>
+      <c r="E24" t="n" s="684">
         <v>0.14285714285714285</v>
       </c>
-      <c r="E23" t="n" s="685">
-        <v>0.17142857142857143</v>
-      </c>
-      <c r="F23" t="n" s="686">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="G23" t="n" s="687">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="677">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n" s="682">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="C24" t="n" s="683">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="D24" t="n" s="684">
-        <v>0.2</v>
-      </c>
-      <c r="E24" t="n" s="685">
-        <v>0.45714285714285713</v>
-      </c>
-      <c r="F24" t="n" s="686">
-        <v>0.17142857142857143</v>
-      </c>
-      <c r="G24" t="n" s="687">
+      <c r="F24" t="n" s="685">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="G24" t="n" s="686">
         <v>0.0</v>
       </c>
     </row>
@@ -7279,7 +7270,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="689">
+      <c r="A1" t="s" s="688">
         <v>49</v>
       </c>
     </row>
@@ -7294,66 +7285,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="703">
+      <c r="A4" t="s" s="702">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="717">
+      <c r="A5" t="s" s="716">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="717">
+      <c r="B5" t="s" s="716">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="717">
+      <c r="C5" t="s" s="716">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="717">
+      <c r="D5" t="s" s="716">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="717">
+      <c r="E5" t="s" s="716">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="717">
+      <c r="F5" t="s" s="716">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="717">
+      <c r="G5" t="s" s="716">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="717">
+      <c r="H5" t="s" s="716">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="717">
+      <c r="I5" t="s" s="716">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="718">
-        <v>0.4481697852284594</v>
-      </c>
-      <c r="B6" t="n" s="719">
-        <v>0.4622474975731069</v>
-      </c>
-      <c r="C6" t="n" s="720">
-        <v>0.8142255727890912</v>
-      </c>
-      <c r="D6" t="n" s="721">
-        <v>0.07915505198947376</v>
-      </c>
-      <c r="E6" t="n" s="722">
-        <v>0.8595915323256889</v>
-      </c>
-      <c r="F6" t="n" s="723">
-        <v>0.14396762137291022</v>
-      </c>
-      <c r="G6" t="n" s="724">
-        <v>2.494285714285714</v>
-      </c>
-      <c r="H6" t="n" s="725">
-        <v>0.5144630879932621</v>
-      </c>
-      <c r="I6" t="n" s="726">
-        <v>0.05483496012794828</v>
+      <c r="A6" t="n" s="717">
+        <v>0.436056891216377</v>
+      </c>
+      <c r="B6" t="n" s="718">
+        <v>0.49518980986771166</v>
+      </c>
+      <c r="C6" t="n" s="719">
+        <v>0.779081100230177</v>
+      </c>
+      <c r="D6" t="n" s="720">
+        <v>0.0982815572108518</v>
+      </c>
+      <c r="E6" t="n" s="721">
+        <v>0.9809425791067019</v>
+      </c>
+      <c r="F6" t="n" s="722">
+        <v>0.1507302299393517</v>
+      </c>
+      <c r="G6" t="n" s="723">
+        <v>1.9746031746031747</v>
+      </c>
+      <c r="H6" t="n" s="724">
+        <v>0.5113708591793267</v>
+      </c>
+      <c r="I6" t="n" s="725">
+        <v>0.01436370306425187</v>
       </c>
     </row>
     <row r="7">
@@ -7367,325 +7358,301 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="730">
+      <c r="A9" t="s" s="729">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="744">
+      <c r="B10" t="s" s="743">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="744">
+      <c r="C10" t="s" s="743">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="744">
+      <c r="D10" t="s" s="743">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="744">
+      <c r="E10" t="s" s="743">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="744">
+      <c r="F10" t="s" s="743">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="744">
+      <c r="G10" t="s" s="743">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="744">
+      <c r="H10" t="s" s="743">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="744">
+      <c r="I10" t="s" s="743">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="740">
+      <c r="A11" t="s" s="739">
+        <v>20</v>
+      </c>
+      <c r="B11" t="n" s="744">
+        <v>0.36814411843396055</v>
+      </c>
+      <c r="C11" t="n" s="745">
+        <v>0.41523807693940995</v>
+      </c>
+      <c r="D11" t="n" s="746">
+        <v>0.6979424627587161</v>
+      </c>
+      <c r="E11" t="n" s="747">
+        <v>0.08152579839595002</v>
+      </c>
+      <c r="F11" t="n" s="748">
+        <v>0.7100976663564071</v>
+      </c>
+      <c r="G11" t="n" s="749">
+        <v>0.17219824857901606</v>
+      </c>
+      <c r="H11" t="n" s="750">
+        <v>0.09763636111213647</v>
+      </c>
+      <c r="I11" t="n" s="751">
+        <v>0.05035655757342228</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="739">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n" s="744">
+        <v>0.3635528190047328</v>
+      </c>
+      <c r="C12" t="n" s="745">
+        <v>0.45081521235150085</v>
+      </c>
+      <c r="D12" t="n" s="746">
+        <v>0.7272655214662385</v>
+      </c>
+      <c r="E12" t="n" s="747">
+        <v>0.09306108539697291</v>
+      </c>
+      <c r="F12" t="n" s="748">
+        <v>0.8208807353929131</v>
+      </c>
+      <c r="G12" t="n" s="749">
+        <v>0.16803488742120995</v>
+      </c>
+      <c r="H12" t="n" s="750">
+        <v>0.08721324990531495</v>
+      </c>
+      <c r="I12" t="n" s="751">
+        <v>0.05031823157650184</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="739">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n" s="744">
+        <v>0.3956194610827309</v>
+      </c>
+      <c r="C13" t="n" s="745">
+        <v>0.4376290946989886</v>
+      </c>
+      <c r="D13" t="n" s="746">
+        <v>0.6989382801439279</v>
+      </c>
+      <c r="E13" t="n" s="747">
+        <v>0.08864996544470273</v>
+      </c>
+      <c r="F13" t="n" s="748">
+        <v>0.7781858744359221</v>
+      </c>
+      <c r="G13" t="n" s="749">
+        <v>0.15438270983030547</v>
+      </c>
+      <c r="H13" t="n" s="750">
+        <v>0.08618212066213556</v>
+      </c>
+      <c r="I13" t="n" s="751">
+        <v>0.05031823157650184</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="739">
         <v>18</v>
       </c>
-      <c r="B11" t="n" s="745">
-        <v>0.4562581806282723</v>
-      </c>
-      <c r="C11" t="n" s="746">
-        <v>0.4663482526573868</v>
-      </c>
-      <c r="D11" t="n" s="747">
-        <v>0.7901133032766622</v>
-      </c>
-      <c r="E11" t="n" s="748">
-        <v>0.08850432997006928</v>
-      </c>
-      <c r="F11" t="n" s="749">
-        <v>0.8738812436755379</v>
-      </c>
-      <c r="G11" t="n" s="750">
-        <v>0.14355109491074036</v>
-      </c>
-      <c r="H11" t="n" s="751">
-        <v>0.08535716345654425</v>
-      </c>
-      <c r="I11" t="n" s="752">
-        <v>0.06524761402729881</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="740">
+      <c r="B14" t="n" s="744">
+        <v>0.45156020258127755</v>
+      </c>
+      <c r="C14" t="n" s="745">
+        <v>0.5263418225705409</v>
+      </c>
+      <c r="D14" t="n" s="746">
+        <v>0.8011535781789229</v>
+      </c>
+      <c r="E14" t="n" s="747">
+        <v>0.12196240136205216</v>
+      </c>
+      <c r="F14" t="n" s="748">
+        <v>1.1112271415369532</v>
+      </c>
+      <c r="G14" t="n" s="749">
+        <v>0.14893101412369963</v>
+      </c>
+      <c r="H14" t="n" s="750">
+        <v>0.14260870711646492</v>
+      </c>
+      <c r="I14" t="n" s="751">
+        <v>0.0396290874205585</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="739">
         <v>19</v>
       </c>
-      <c r="B12" t="n" s="745">
-        <v>0.39746717371026774</v>
-      </c>
-      <c r="C12" t="n" s="746">
-        <v>0.3913559123039209</v>
-      </c>
-      <c r="D12" t="n" s="747">
-        <v>0.7473583737737943</v>
-      </c>
-      <c r="E12" t="n" s="748">
-        <v>0.06668013803752701</v>
-      </c>
-      <c r="F12" t="n" s="749">
-        <v>0.6429963261211223</v>
-      </c>
-      <c r="G12" t="n" s="750">
-        <v>0.15854369722246134</v>
-      </c>
-      <c r="H12" t="n" s="751">
-        <v>0.09233251404479456</v>
-      </c>
-      <c r="I12" t="n" s="752">
-        <v>0.01582110639502446</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="740">
-        <v>20</v>
-      </c>
-      <c r="B13" t="n" s="745">
-        <v>0.38997415343122577</v>
-      </c>
-      <c r="C13" t="n" s="746">
-        <v>0.41337115564411586</v>
-      </c>
-      <c r="D13" t="n" s="747">
-        <v>0.6776147767119796</v>
-      </c>
-      <c r="E13" t="n" s="748">
-        <v>0.07261003381936233</v>
-      </c>
-      <c r="F13" t="n" s="749">
-        <v>0.7046553534168535</v>
-      </c>
-      <c r="G13" t="n" s="750">
-        <v>0.1608789876793152</v>
-      </c>
-      <c r="H13" t="n" s="751">
-        <v>0.07957965709883892</v>
-      </c>
-      <c r="I13" t="n" s="752">
-        <v>0.05035655757342228</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="740">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="745">
-        <v>0.369154895275207</v>
-      </c>
-      <c r="C14" t="n" s="746">
-        <v>0.400340819208461</v>
-      </c>
-      <c r="D14" t="n" s="747">
-        <v>0.6796406598660234</v>
-      </c>
-      <c r="E14" t="n" s="748">
-        <v>0.06905674243496993</v>
-      </c>
-      <c r="F14" t="n" s="749">
-        <v>0.6676139247630938</v>
-      </c>
-      <c r="G14" t="n" s="750">
-        <v>0.16759237990895925</v>
-      </c>
-      <c r="H14" t="n" s="751">
-        <v>0.0803406345973745</v>
-      </c>
-      <c r="I14" t="n" s="752">
-        <v>0.039943903674071746</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="740">
+      <c r="B15" t="n" s="744">
+        <v>0.3758985753496275</v>
+      </c>
+      <c r="C15" t="n" s="745">
+        <v>0.43187539524440155</v>
+      </c>
+      <c r="D15" t="n" s="746">
+        <v>0.7461194054695073</v>
+      </c>
+      <c r="E15" t="n" s="747">
+        <v>0.08677646823152971</v>
+      </c>
+      <c r="F15" t="n" s="748">
+        <v>0.760177242156569</v>
+      </c>
+      <c r="G15" t="n" s="749">
+        <v>0.16868709984351443</v>
+      </c>
+      <c r="H15" t="n" s="750">
+        <v>0.15439954217004745</v>
+      </c>
+      <c r="I15" t="n" s="751">
+        <v>-0.0823442589515587</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="739">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n" s="744">
+        <v>0.43419026346092476</v>
+      </c>
+      <c r="C16" t="n" s="745">
+        <v>0.4634877973629401</v>
+      </c>
+      <c r="D16" t="n" s="746">
+        <v>0.7708009206628523</v>
+      </c>
+      <c r="E16" t="n" s="747">
+        <v>0.0974617752766783</v>
+      </c>
+      <c r="F16" t="n" s="748">
+        <v>0.8638905044187422</v>
+      </c>
+      <c r="G16" t="n" s="749">
+        <v>0.1436534303581824</v>
+      </c>
+      <c r="H16" t="n" s="750">
+        <v>0.139415395713689</v>
+      </c>
+      <c r="I16" t="n" s="751">
+        <v>-0.002732353062380422</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="739">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="744">
+        <v>0.41586360266864336</v>
+      </c>
+      <c r="C17" t="n" s="745">
+        <v>0.47520267710511477</v>
+      </c>
+      <c r="D17" t="n" s="746">
+        <v>0.7724039351908121</v>
+      </c>
+      <c r="E17" t="n" s="747">
+        <v>0.10167848821745998</v>
+      </c>
+      <c r="F17" t="n" s="748">
+        <v>0.905497525185158</v>
+      </c>
+      <c r="G17" t="n" s="749">
+        <v>0.15167879534040812</v>
+      </c>
+      <c r="H17" t="n" s="750">
+        <v>0.139206694433144</v>
+      </c>
+      <c r="I17" t="n" s="751">
+        <v>-0.002732353062380422</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="739">
         <v>28</v>
       </c>
-      <c r="B15" t="n" s="745">
-        <v>0.4487666527893422</v>
-      </c>
-      <c r="C15" t="n" s="746">
-        <v>0.44443536661625405</v>
-      </c>
-      <c r="D15" t="n" s="747">
-        <v>0.784693828030404</v>
-      </c>
-      <c r="E15" t="n" s="748">
-        <v>0.08162989685611037</v>
-      </c>
-      <c r="F15" t="n" s="749">
-        <v>0.7999705883172525</v>
-      </c>
-      <c r="G15" t="n" s="750">
-        <v>0.14084838646518938</v>
-      </c>
-      <c r="H15" t="n" s="751">
-        <v>0.07343961534317707</v>
-      </c>
-      <c r="I15" t="n" s="752">
-        <v>0.0811314704233908</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="740">
+      <c r="B18" t="n" s="744">
+        <v>0.42465137201979297</v>
+      </c>
+      <c r="C18" t="n" s="745">
+        <v>0.48472419820886825</v>
+      </c>
+      <c r="D18" t="n" s="746">
+        <v>0.7373835920637177</v>
+      </c>
+      <c r="E18" t="n" s="747">
+        <v>0.10521630104210265</v>
+      </c>
+      <c r="F18" t="n" s="748">
+        <v>0.9407082508511675</v>
+      </c>
+      <c r="G18" t="n" s="749">
+        <v>0.148695364534912</v>
+      </c>
+      <c r="H18" t="n" s="750">
+        <v>0.1277749847642346</v>
+      </c>
+      <c r="I18" t="n" s="751">
+        <v>0.0396290874205585</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="739">
         <v>29</v>
       </c>
-      <c r="B16" t="n" s="745">
-        <v>0.4661058013634541</v>
-      </c>
-      <c r="C16" t="n" s="746">
-        <v>0.4867727640350864</v>
-      </c>
-      <c r="D16" t="n" s="747">
-        <v>0.812784315253662</v>
-      </c>
-      <c r="E16" t="n" s="748">
-        <v>0.09533688328482873</v>
-      </c>
-      <c r="F16" t="n" s="749">
-        <v>0.9484546608675388</v>
-      </c>
-      <c r="G16" t="n" s="750">
-        <v>0.14018620377048124</v>
-      </c>
-      <c r="H16" t="n" s="751">
-        <v>0.08112120746549925</v>
-      </c>
-      <c r="I16" t="n" s="752">
-        <v>0.08854272929595253</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="740">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="745">
-        <v>0.4056085918854415</v>
-      </c>
-      <c r="C17" t="n" s="746">
-        <v>0.4738790262804354</v>
-      </c>
-      <c r="D17" t="n" s="747">
-        <v>0.7331432670854129</v>
-      </c>
-      <c r="E17" t="n" s="748">
-        <v>0.09097369102806178</v>
-      </c>
-      <c r="F17" t="n" s="749">
-        <v>0.900703545289613</v>
-      </c>
-      <c r="G17" t="n" s="750">
-        <v>0.1536736473613971</v>
-      </c>
-      <c r="H17" t="n" s="751">
-        <v>0.06026084147516505</v>
-      </c>
-      <c r="I17" t="n" s="752">
-        <v>0.0811314704233908</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="740">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="745">
-        <v>0.4313296675831042</v>
-      </c>
-      <c r="C18" t="n" s="746">
-        <v>0.463953176632527</v>
-      </c>
-      <c r="D18" t="n" s="747">
-        <v>0.7245955197005083</v>
-      </c>
-      <c r="E18" t="n" s="748">
-        <v>0.08773077039177782</v>
-      </c>
-      <c r="F18" t="n" s="749">
-        <v>0.8655086764957396</v>
-      </c>
-      <c r="G18" t="n" s="750">
-        <v>0.14417107066610882</v>
-      </c>
-      <c r="H18" t="n" s="751">
-        <v>0.06095015428342626</v>
-      </c>
-      <c r="I18" t="n" s="752">
-        <v>0.06524761402729881</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="740">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="745">
-        <v>0.4231914893617022</v>
-      </c>
-      <c r="C19" t="n" s="746">
-        <v>0.39064390304184404</v>
-      </c>
-      <c r="D19" t="n" s="747">
-        <v>0.7659013195714323</v>
-      </c>
-      <c r="E19" t="n" s="748">
-        <v>0.06649429082497682</v>
-      </c>
-      <c r="F19" t="n" s="749">
-        <v>0.6410765478377896</v>
-      </c>
-      <c r="G19" t="n" s="750">
-        <v>0.1453226423189995</v>
-      </c>
-      <c r="H19" t="n" s="751">
-        <v>0.08207788980467322</v>
-      </c>
-      <c r="I19" t="n" s="752">
-        <v>0.01582110639502446</v>
+      <c r="B19" t="n" s="744">
+        <v>0.424388388895931</v>
+      </c>
+      <c r="C19" t="n" s="745">
+        <v>0.4925502914428971</v>
+      </c>
+      <c r="D19" t="n" s="746">
+        <v>0.7543469920428558</v>
+      </c>
+      <c r="E19" t="n" s="747">
+        <v>0.10820173153021753</v>
+      </c>
+      <c r="F19" t="n" s="748">
+        <v>0.970638633025189</v>
+      </c>
+      <c r="G19" t="n" s="749">
+        <v>0.1543306581128837</v>
+      </c>
+      <c r="H19" t="n" s="750">
+        <v>0.14400812642783287</v>
+      </c>
+      <c r="I19" t="n" s="751">
+        <v>0.05031823157650184</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="740">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="745">
-        <v>0.41961467889908255</v>
-      </c>
-      <c r="C20" t="n" s="746">
-        <v>0.41309631363021415</v>
-      </c>
-      <c r="D20" t="n" s="747">
-        <v>0.7889706414280402</v>
-      </c>
-      <c r="E20" t="n" s="748">
-        <v>0.07253374324705326</v>
-      </c>
-      <c r="F20" t="n" s="749">
-        <v>0.7038570777862484</v>
-      </c>
-      <c r="G20" t="n" s="750">
-        <v>0.14867282743312035</v>
-      </c>
-      <c r="H20" t="n" s="751">
-        <v>0.08264305632663606</v>
-      </c>
-      <c r="I20" t="n" s="752">
-        <v>0.012526423610097603</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7694,595 +7661,538 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="755">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="769">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="769">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="769">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="769">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="769">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="769">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="769">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="765">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="770">
+        <v>35.0</v>
+      </c>
+      <c r="C24" t="n" s="771">
+        <v>0.6205165334963793</v>
+      </c>
+      <c r="D24" t="n" s="772">
+        <v>0.5625142653294853</v>
+      </c>
+      <c r="E24" t="n" s="773">
+        <v>0.6158689897677213</v>
+      </c>
+      <c r="F24" t="n" s="774">
+        <v>0.5557053347813965</v>
+      </c>
+      <c r="G24" t="n" s="775">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="H24" t="n" s="776">
+        <v>0.4434395736311599</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="765">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n" s="770">
+        <v>35.0</v>
+      </c>
+      <c r="C25" t="n" s="771">
+        <v>0.5600659638807859</v>
+      </c>
+      <c r="D25" t="n" s="772">
+        <v>0.4819590317446052</v>
+      </c>
+      <c r="E25" t="n" s="773">
+        <v>0.535002439438355</v>
+      </c>
+      <c r="F25" t="n" s="774">
+        <v>0.2694621271566566</v>
+      </c>
+      <c r="G25" t="n" s="775">
+        <v>0.8</v>
+      </c>
+      <c r="H25" t="n" s="776">
+        <v>1.5107458228227773</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="765">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="770">
+        <v>35.0</v>
+      </c>
+      <c r="C26" t="n" s="771">
+        <v>0.5828356413067954</v>
+      </c>
+      <c r="D26" t="n" s="772">
+        <v>0.5127635360533876</v>
+      </c>
+      <c r="E26" t="n" s="773">
+        <v>0.5748832042294413</v>
+      </c>
+      <c r="F26" t="n" s="774">
+        <v>0.22195452530821658</v>
+      </c>
+      <c r="G26" t="n" s="775">
+        <v>1.0</v>
+      </c>
+      <c r="H26" t="n" s="776">
+        <v>1.8311038136792213</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="765">
+        <v>18</v>
+      </c>
+      <c r="B27" t="n" s="770">
+        <v>35.0</v>
+      </c>
+      <c r="C27" t="n" s="771">
+        <v>0.16967613539353837</v>
+      </c>
+      <c r="D27" t="n" s="772">
+        <v>0.2801303075636697</v>
+      </c>
+      <c r="E27" t="n" s="773">
+        <v>0.11360141047159682</v>
+      </c>
+      <c r="F27" t="n" s="774">
+        <v>0.012260632789827162</v>
+      </c>
+      <c r="G27" t="n" s="775">
+        <v>3.657142857142857</v>
+      </c>
+      <c r="H27" t="n" s="776">
+        <v>0.7252933338781401</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="765">
+        <v>19</v>
+      </c>
+      <c r="B28" t="n" s="770">
+        <v>35.0</v>
+      </c>
+      <c r="C28" t="n" s="771">
+        <v>0.467904001786143</v>
+      </c>
+      <c r="D28" t="n" s="772">
+        <v>0.525846869447207</v>
+      </c>
+      <c r="E28" t="n" s="773">
+        <v>0.4399540002327635</v>
+      </c>
+      <c r="F28" t="n" s="774">
+        <v>0.31524648049212434</v>
+      </c>
+      <c r="G28" t="n" s="775">
+        <v>4.3428571428571425</v>
+      </c>
+      <c r="H28" t="n" s="776">
+        <v>0.8023075962444807</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="765">
+        <v>26</v>
+      </c>
+      <c r="B29" t="n" s="770">
+        <v>35.0</v>
+      </c>
+      <c r="C29" t="n" s="771">
+        <v>0.4439152012545575</v>
+      </c>
+      <c r="D29" t="n" s="772">
+        <v>0.45122736454266665</v>
+      </c>
+      <c r="E29" t="n" s="773">
+        <v>0.33864256181282215</v>
+      </c>
+      <c r="F29" t="n" s="774">
+        <v>0.13131441810689057</v>
+      </c>
+      <c r="G29" t="n" s="775">
+        <v>1.3714285714285714</v>
+      </c>
+      <c r="H29" t="n" s="776">
+        <v>1.4967752451366176</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="765">
+        <v>27</v>
+      </c>
+      <c r="B30" t="n" s="770">
+        <v>35.0</v>
+      </c>
+      <c r="C30" t="n" s="771">
+        <v>0.406249408002344</v>
+      </c>
+      <c r="D30" t="n" s="772">
+        <v>0.42178047727623513</v>
+      </c>
+      <c r="E30" t="n" s="773">
+        <v>0.3067471259176543</v>
+      </c>
+      <c r="F30" t="n" s="774">
+        <v>0.1578737880034495</v>
+      </c>
+      <c r="G30" t="n" s="775">
+        <v>2.5142857142857142</v>
+      </c>
+      <c r="H30" t="n" s="776">
+        <v>1.1973359784864694</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="765">
+        <v>28</v>
+      </c>
+      <c r="B31" t="n" s="770">
+        <v>35.0</v>
+      </c>
+      <c r="C31" t="n" s="771">
+        <v>0.36536724244880825</v>
+      </c>
+      <c r="D31" t="n" s="772">
+        <v>0.39707460403325445</v>
+      </c>
+      <c r="E31" t="n" s="773">
+        <v>0.3312607886592517</v>
+      </c>
+      <c r="F31" t="n" s="774">
+        <v>0.1322544321407879</v>
+      </c>
+      <c r="G31" t="n" s="775">
+        <v>2.057142857142857</v>
+      </c>
+      <c r="H31" t="n" s="776">
+        <v>1.1099246700156022</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="765">
+        <v>29</v>
+      </c>
+      <c r="B32" t="n" s="770">
+        <v>35.0</v>
+      </c>
+      <c r="C32" t="n" s="771">
+        <v>0.3480284078300969</v>
+      </c>
+      <c r="D32" t="n" s="772">
+        <v>0.3762262237285258</v>
+      </c>
+      <c r="E32" t="n" s="773">
+        <v>0.2830675621806043</v>
+      </c>
+      <c r="F32" t="n" s="774">
+        <v>0.13104010467110344</v>
+      </c>
+      <c r="G32" t="n" s="775">
+        <v>1.7714285714285714</v>
+      </c>
+      <c r="H32" t="n" s="776">
+        <v>1.0314385809239868</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="756">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="770">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="770">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="770">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="770">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="770">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="770">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="770">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="766">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="780">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36" t="s" s="794">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="794">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="794">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="794">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="794">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="794">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="794">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="790">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="795">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="C37" t="n" s="796">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="D37" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="790">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="795">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="C38" t="n" s="796">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="D38" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="798">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="F38" t="n" s="799">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G38" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H38" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="790">
+        <v>22</v>
+      </c>
+      <c r="B39" t="n" s="795">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="C39" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n" s="797">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="E39" t="n" s="798">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="F39" t="n" s="799">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="G39" t="n" s="800">
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="H39" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="790">
         <v>18</v>
       </c>
-      <c r="B25" t="n" s="771">
-        <v>35.0</v>
-      </c>
-      <c r="C25" t="n" s="772">
-        <v>0.1758879820811434</v>
-      </c>
-      <c r="D25" t="n" s="773">
-        <v>0.3324758037540793</v>
-      </c>
-      <c r="E25" t="n" s="774">
-        <v>0.24435925580703613</v>
-      </c>
-      <c r="F25" t="n" s="775">
-        <v>0.035437890070616644</v>
-      </c>
-      <c r="G25" t="n" s="776">
-        <v>3.657142857142857</v>
-      </c>
-      <c r="H25" t="n" s="777">
-        <v>0.7252933338781401</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="766">
+      <c r="B40" t="n" s="795">
+        <v>0.0</v>
+      </c>
+      <c r="C40" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n" s="797">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="E40" t="n" s="798">
+        <v>0.4</v>
+      </c>
+      <c r="F40" t="n" s="799">
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="G40" t="n" s="800">
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="H40" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="790">
         <v>19</v>
       </c>
-      <c r="B26" t="n" s="771">
-        <v>35.0</v>
-      </c>
-      <c r="C26" t="n" s="772">
-        <v>0.44667797388986136</v>
-      </c>
-      <c r="D26" t="n" s="773">
-        <v>0.5223380603228546</v>
-      </c>
-      <c r="E26" t="n" s="774">
-        <v>0.4684760797230989</v>
-      </c>
-      <c r="F26" t="n" s="775">
-        <v>0.3090396297127023</v>
-      </c>
-      <c r="G26" t="n" s="776">
-        <v>4.3428571428571425</v>
-      </c>
-      <c r="H26" t="n" s="777">
-        <v>0.8023075962444807</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="766">
-        <v>20</v>
-      </c>
-      <c r="B27" t="n" s="771">
-        <v>35.0</v>
-      </c>
-      <c r="C27" t="n" s="772">
-        <v>0.4715747410879208</v>
-      </c>
-      <c r="D27" t="n" s="773">
-        <v>0.47075019865828904</v>
-      </c>
-      <c r="E27" t="n" s="774">
-        <v>0.47895591962003936</v>
-      </c>
-      <c r="F27" t="n" s="775">
-        <v>0.287342005333658</v>
-      </c>
-      <c r="G27" t="n" s="776">
-        <v>3.4285714285714284</v>
-      </c>
-      <c r="H27" t="n" s="777">
-        <v>1.0651074037450894</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="766">
-        <v>21</v>
-      </c>
-      <c r="B28" t="n" s="771">
-        <v>35.0</v>
-      </c>
-      <c r="C28" t="n" s="772">
-        <v>0.5417010614767891</v>
-      </c>
-      <c r="D28" t="n" s="773">
-        <v>0.5016624964685541</v>
-      </c>
-      <c r="E28" t="n" s="774">
-        <v>0.5099733281473009</v>
-      </c>
-      <c r="F28" t="n" s="775">
-        <v>0.3109588152838374</v>
-      </c>
-      <c r="G28" t="n" s="776">
-        <v>4.0</v>
-      </c>
-      <c r="H28" t="n" s="777">
-        <v>1.3719886811400708</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="766">
+      <c r="B41" t="n" s="795">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n" s="798">
+        <v>0.2</v>
+      </c>
+      <c r="F41" t="n" s="799">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="G41" t="n" s="800">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="H41" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="790">
+        <v>26</v>
+      </c>
+      <c r="B42" t="n" s="795">
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="C42" t="n" s="796">
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="D42" t="n" s="797">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E42" t="n" s="798">
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="F42" t="n" s="799">
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="G42" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="790">
+        <v>27</v>
+      </c>
+      <c r="B43" t="n" s="795">
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="C43" t="n" s="796">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="D43" t="n" s="797">
+        <v>0.2</v>
+      </c>
+      <c r="E43" t="n" s="798">
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="F43" t="n" s="799">
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="G43" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="790">
         <v>28</v>
       </c>
-      <c r="B29" t="n" s="771">
-        <v>35.0</v>
-      </c>
-      <c r="C29" t="n" s="772">
-        <v>0.3044849312898478</v>
-      </c>
-      <c r="D29" t="n" s="773">
-        <v>0.3922807847440587</v>
-      </c>
-      <c r="E29" t="n" s="774">
-        <v>0.3221528234060398</v>
-      </c>
-      <c r="F29" t="n" s="775">
-        <v>0.09276266186845956</v>
-      </c>
-      <c r="G29" t="n" s="776">
-        <v>2.057142857142857</v>
-      </c>
-      <c r="H29" t="n" s="777">
-        <v>1.1099246700156022</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="766">
+      <c r="B44" t="n" s="795">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C44" t="n" s="796">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="D44" t="n" s="797">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E44" t="n" s="798">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F44" t="n" s="799">
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="G44" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H44" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="790">
         <v>29</v>
       </c>
-      <c r="B30" t="n" s="771">
-        <v>35.0</v>
-      </c>
-      <c r="C30" t="n" s="772">
-        <v>0.22471799004192522</v>
-      </c>
-      <c r="D30" t="n" s="773">
-        <v>0.2730351612562299</v>
-      </c>
-      <c r="E30" t="n" s="774">
-        <v>0.16161375258619026</v>
-      </c>
-      <c r="F30" t="n" s="775">
-        <v>0.02485791822236179</v>
-      </c>
-      <c r="G30" t="n" s="776">
-        <v>1.7714285714285714</v>
-      </c>
-      <c r="H30" t="n" s="777">
-        <v>1.0314385809239868</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="766">
-        <v>22</v>
-      </c>
-      <c r="B31" t="n" s="771">
-        <v>35.0</v>
-      </c>
-      <c r="C31" t="n" s="772">
-        <v>0.49043387756890466</v>
-      </c>
-      <c r="D31" t="n" s="773">
-        <v>0.310993291860733</v>
-      </c>
-      <c r="E31" t="n" s="774">
-        <v>0.33656417881296724</v>
-      </c>
-      <c r="F31" t="n" s="775">
-        <v>0.2202540325556828</v>
-      </c>
-      <c r="G31" t="n" s="776">
-        <v>0.8</v>
-      </c>
-      <c r="H31" t="n" s="777">
-        <v>1.5107458228227773</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="766">
-        <v>23</v>
-      </c>
-      <c r="B32" t="n" s="771">
-        <v>35.0</v>
-      </c>
-      <c r="C32" t="n" s="772">
-        <v>0.5120327547129612</v>
-      </c>
-      <c r="D32" t="n" s="773">
-        <v>0.3392054809663571</v>
-      </c>
-      <c r="E32" t="n" s="774">
-        <v>0.36803077513214577</v>
-      </c>
-      <c r="F32" t="n" s="775">
-        <v>0.1788099575018722</v>
-      </c>
-      <c r="G32" t="n" s="776">
-        <v>1.0</v>
-      </c>
-      <c r="H32" t="n" s="777">
-        <v>1.8311038136792213</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="766">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="771">
-        <v>35.0</v>
-      </c>
-      <c r="C33" t="n" s="772">
-        <v>0.4535422658860581</v>
-      </c>
-      <c r="D33" t="n" s="773">
-        <v>0.5239548611309147</v>
-      </c>
-      <c r="E33" t="n" s="774">
-        <v>0.46028186284723066</v>
-      </c>
-      <c r="F33" t="n" s="775">
-        <v>0.17948407540462524</v>
-      </c>
-      <c r="G33" t="n" s="776">
-        <v>1.3714285714285714</v>
-      </c>
-      <c r="H33" t="n" s="777">
-        <v>1.4967752451366176</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="766">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="771">
-        <v>35.0</v>
-      </c>
-      <c r="C34" t="n" s="772">
-        <v>0.4059903515229384</v>
-      </c>
-      <c r="D34" t="n" s="773">
-        <v>0.47141389792643573</v>
-      </c>
-      <c r="E34" t="n" s="774">
-        <v>0.3835928014976868</v>
-      </c>
-      <c r="F34" t="n" s="775">
-        <v>0.1862648702541362</v>
-      </c>
-      <c r="G34" t="n" s="776">
-        <v>2.5142857142857142</v>
-      </c>
-      <c r="H34" t="n" s="777">
-        <v>1.1973359784864694</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="781">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="795">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="795">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="795">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="795">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="795">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="795">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="795">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="791">
-        <v>18</v>
-      </c>
-      <c r="B39" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="C39" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D39" t="n" s="798">
+      <c r="B45" t="n" s="795">
+        <v>0.2</v>
+      </c>
+      <c r="C45" t="n" s="796">
         <v>0.02857142857142857</v>
       </c>
-      <c r="E39" t="n" s="799">
-        <v>0.4</v>
-      </c>
-      <c r="F39" t="n" s="800">
-        <v>0.45714285714285713</v>
-      </c>
-      <c r="G39" t="n" s="801">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="H39" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="791">
-        <v>19</v>
-      </c>
-      <c r="B40" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="C40" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E40" t="n" s="799">
-        <v>0.2</v>
-      </c>
-      <c r="F40" t="n" s="800">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="G40" t="n" s="801">
-        <v>0.5428571428571428</v>
-      </c>
-      <c r="H40" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="791">
-        <v>20</v>
-      </c>
-      <c r="B41" t="n" s="796">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="C41" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D41" t="n" s="798">
+      <c r="D45" t="n" s="797">
+        <v>0.6</v>
+      </c>
+      <c r="E45" t="n" s="798">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F45" t="n" s="799">
         <v>0.02857142857142857</v>
       </c>
-      <c r="E41" t="n" s="799">
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="F41" t="n" s="800">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="G41" t="n" s="801">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="H41" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="791">
-        <v>21</v>
-      </c>
-      <c r="B42" t="n" s="796">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="C42" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D42" t="n" s="798">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="E42" t="n" s="799">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="F42" t="n" s="800">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="G42" t="n" s="801">
-        <v>0.5428571428571428</v>
-      </c>
-      <c r="H42" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="791">
-        <v>28</v>
-      </c>
-      <c r="B43" t="n" s="796">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="C43" t="n" s="797">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="D43" t="n" s="798">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="E43" t="n" s="799">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F43" t="n" s="800">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="G43" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="791">
-        <v>29</v>
-      </c>
-      <c r="B44" t="n" s="796">
-        <v>0.2</v>
-      </c>
-      <c r="C44" t="n" s="797">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="D44" t="n" s="798">
-        <v>0.6</v>
-      </c>
-      <c r="E44" t="n" s="799">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F44" t="n" s="800">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="G44" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="791">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n" s="796">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="C45" t="n" s="797">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="D45" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="799">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="F45" t="n" s="800">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G45" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H45" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="791">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="796">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="C46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="798">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="E46" t="n" s="799">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="F46" t="n" s="800">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="G46" t="n" s="801">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="H46" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="791">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="796">
-        <v>0.45714285714285713</v>
-      </c>
-      <c r="C47" t="n" s="797">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="D47" t="n" s="798">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="E47" t="n" s="799">
-        <v>0.17142857142857143</v>
-      </c>
-      <c r="F47" t="n" s="800">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="G47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="791">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="796">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="C48" t="n" s="797">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="D48" t="n" s="798">
-        <v>0.2</v>
-      </c>
-      <c r="E48" t="n" s="799">
-        <v>0.45714285714285713</v>
-      </c>
-      <c r="F48" t="n" s="800">
-        <v>0.17142857142857143</v>
-      </c>
-      <c r="G48" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="802">
+      <c r="G45" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H45" t="n" s="801">
         <v>0.0</v>
       </c>
     </row>
